--- a/Projet_3(Back-end)/Budget/BudgetLouvre.xlsx
+++ b/Projet_3(Back-end)/Budget/BudgetLouvre.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5616" yWindow="0" windowWidth="17256" windowHeight="6120"/>
+    <workbookView xWindow="6552" yWindow="0" windowWidth="17256" windowHeight="6120"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Print_Area" localSheetId="0">Feuil1!$A$1:$M$43</definedName>
+    <definedName name="Print_Area" localSheetId="0">Feuil1!$A$1:$M$44</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Tâches</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Retouche graphique</t>
+  </si>
+  <si>
+    <t>Intégration charte graphique</t>
   </si>
 </sst>
 </file>
@@ -224,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -868,13 +871,37 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -890,7 +917,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -934,15 +960,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -951,9 +968,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -963,9 +977,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -973,23 +984,11 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1000,12 +999,30 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1015,6 +1032,20 @@
     <xf numFmtId="2" fontId="4" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1357,10 +1388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K30"/>
+  <dimension ref="B1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1380,17 +1411,17 @@
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="15" t="s">
+      <c r="F2" s="70"/>
+      <c r="G2" s="14" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="8" t="s">
@@ -1410,62 +1441,62 @@
       <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="55">
-        <f>(C21/220)*2</f>
+      <c r="C3" s="49">
+        <f>(C22/220)*2</f>
         <v>441.81818181818181</v>
       </c>
-      <c r="D3" s="55">
-        <f>(D21/220)*2</f>
+      <c r="D3" s="49">
+        <f>(D22/220)*2</f>
         <v>490.90909090909093</v>
       </c>
-      <c r="E3" s="59">
-        <f>(E21/220)*2</f>
+      <c r="E3" s="52">
+        <f>(E22/220)*2</f>
         <v>425.45454545454544</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="58" t="s">
+      <c r="F3" s="71"/>
+      <c r="G3" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="31">
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="30">
         <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="65" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="75"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="80"/>
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="64">
+      <c r="C5" s="44"/>
+      <c r="D5" s="56">
         <v>0.5</v>
       </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="72">
+      <c r="E5" s="56"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62">
         <f>$D$3*D5</f>
         <v>245.45454545454547</v>
       </c>
-      <c r="I5" s="73"/>
-      <c r="J5" s="74">
+      <c r="I5" s="63"/>
+      <c r="J5" s="64">
         <f>SUM(G5:H5)</f>
         <v>245.45454545454547</v>
       </c>
@@ -1483,39 +1514,39 @@
         <v>1</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="25">
-        <f t="shared" ref="H6:H17" si="0">$D$3*D6</f>
+      <c r="F6" s="72"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="24">
+        <f t="shared" ref="H6:H18" si="0">$D$3*D6</f>
         <v>490.90909090909093</v>
       </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="52">
-        <f t="shared" ref="J6:J17" si="1">SUM(G6:H6)</f>
+      <c r="I6" s="34"/>
+      <c r="J6" s="46">
+        <f t="shared" ref="J6:J18" si="1">SUM(G6:H6)</f>
         <v>490.90909090909093</v>
       </c>
       <c r="K6" s="11">
-        <f t="shared" ref="K6:K17" si="2">J6*$K$3</f>
+        <f t="shared" ref="K6:K18" si="2">J6*$K$3</f>
         <v>564.5454545454545</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70">
+      <c r="C7" s="59"/>
+      <c r="D7" s="60">
         <v>1</v>
       </c>
-      <c r="E7" s="70"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="46">
+      <c r="E7" s="60"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="41">
         <f t="shared" si="0"/>
         <v>490.90909090909093</v>
       </c>
-      <c r="I7" s="77"/>
-      <c r="J7" s="78">
+      <c r="I7" s="66"/>
+      <c r="J7" s="67">
         <f t="shared" si="1"/>
         <v>490.90909090909093</v>
       </c>
@@ -1525,43 +1556,43 @@
       </c>
     </row>
     <row r="8" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="79" t="s">
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="81"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="77"/>
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="44">
         <v>0.5</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="56">
         <v>0.5</v>
       </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="71">
+      <c r="E9" s="56"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="61">
         <f>$C$3*C9</f>
         <v>220.90909090909091</v>
       </c>
-      <c r="H9" s="72">
+      <c r="H9" s="62">
         <f t="shared" si="0"/>
         <v>245.45454545454547</v>
       </c>
-      <c r="I9" s="73"/>
-      <c r="J9" s="74">
+      <c r="I9" s="63"/>
+      <c r="J9" s="64">
         <f t="shared" si="1"/>
         <v>466.36363636363637</v>
       </c>
@@ -1579,14 +1610,14 @@
       <c r="E10" s="2">
         <v>2</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25">
-        <f t="shared" ref="H10:J10" si="3">E10*E3</f>
+      <c r="F10" s="72"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24">
+        <f t="shared" ref="I10:J10" si="3">E10*E3</f>
         <v>850.90909090909088</v>
       </c>
-      <c r="J10" s="62">
+      <c r="J10" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1596,22 +1627,22 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="70">
+      <c r="C11" s="59"/>
+      <c r="D11" s="60">
         <v>0.2</v>
       </c>
-      <c r="E11" s="70"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="46">
+      <c r="E11" s="60"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="41">
         <f t="shared" si="0"/>
         <v>98.181818181818187</v>
       </c>
-      <c r="I11" s="77"/>
-      <c r="J11" s="78">
+      <c r="I11" s="66"/>
+      <c r="J11" s="67">
         <f t="shared" si="1"/>
         <v>98.181818181818187</v>
       </c>
@@ -1621,303 +1652,326 @@
       </c>
     </row>
     <row r="12" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="79" t="s">
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="81"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="77"/>
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="49">
-        <v>3</v>
-      </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="71">
+      <c r="C13" s="44">
+        <v>2</v>
+      </c>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="82">
         <f>$C$3*C13</f>
-        <v>1325.4545454545455</v>
-      </c>
-      <c r="H13" s="72">
+        <v>883.63636363636363</v>
+      </c>
+      <c r="H13" s="83"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="85">
+        <f t="shared" si="1"/>
+        <v>883.63636363636363</v>
+      </c>
+      <c r="K13" s="54">
+        <f t="shared" si="2"/>
+        <v>1016.1818181818181</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="72"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40">
+        <f t="shared" ref="H14:J14" si="4">E14*E3</f>
+        <v>212.72727272727272</v>
+      </c>
+      <c r="J14" s="46">
+        <f>SUM(G14:I14)</f>
+        <v>212.72727272727272</v>
+      </c>
+      <c r="K14" s="54">
+        <f t="shared" si="2"/>
+        <v>244.6363636363636</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="28">
+        <f>$C$3*C15</f>
+        <v>220.90909090909091</v>
+      </c>
+      <c r="H15" s="40">
+        <f t="shared" si="0"/>
+        <v>245.45454545454547</v>
+      </c>
+      <c r="I15" s="40"/>
+      <c r="J15" s="46">
+        <f>SUM(G15:H15)</f>
+        <v>466.36363636363637</v>
+      </c>
+      <c r="K15" s="54">
+        <f t="shared" si="2"/>
+        <v>536.31818181818176</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="72"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40">
+        <f t="shared" ref="I16" si="5">E16*E3</f>
+        <v>425.45454545454544</v>
+      </c>
+      <c r="J16" s="46"/>
+      <c r="K16" s="54">
+        <f>SUM(G16:J16)</f>
+        <v>425.45454545454544</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="28">
+        <f>$C$3*C17</f>
+        <v>441.81818181818181</v>
+      </c>
+      <c r="H17" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="73"/>
-      <c r="J13" s="74">
+      <c r="I17" s="34"/>
+      <c r="J17" s="46">
         <f t="shared" si="1"/>
-        <v>1325.4545454545455</v>
-      </c>
-      <c r="K13" s="11">
+        <v>441.81818181818181</v>
+      </c>
+      <c r="K17" s="54">
         <f t="shared" si="2"/>
-        <v>1524.2727272727273</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1">
+        <v>508.09090909090907</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5">
         <v>0.5</v>
       </c>
-      <c r="D14" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="29">
-        <f>$C$3*C14</f>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="29">
+        <f>$C$3*C18</f>
         <v>220.90909090909091</v>
       </c>
-      <c r="H14" s="25">
-        <f t="shared" si="0"/>
-        <v>245.45454545454547</v>
-      </c>
-      <c r="I14" s="38"/>
-      <c r="J14" s="52">
-        <f t="shared" si="1"/>
-        <v>466.36363636363637</v>
-      </c>
-      <c r="K14" s="11">
-        <f t="shared" si="2"/>
-        <v>536.31818181818176</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15" s="61"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25">
-        <f t="shared" ref="H15:J15" si="4">E15*E3</f>
-        <v>425.45454545454544</v>
-      </c>
-      <c r="J15" s="62"/>
-      <c r="K15" s="11">
-        <f>SUM(G15:J15)</f>
-        <v>425.45454545454544</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="29">
-        <f>$C$3*C16</f>
-        <v>441.81818181818181</v>
-      </c>
-      <c r="H16" s="25">
+      <c r="H18" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="38"/>
-      <c r="J16" s="52">
-        <f t="shared" si="1"/>
-        <v>441.81818181818181</v>
-      </c>
-      <c r="K16" s="11">
-        <f t="shared" si="2"/>
-        <v>508.09090909090907</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="30">
-        <f>$C$3*C17</f>
-        <v>220.90909090909091</v>
-      </c>
-      <c r="H17" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="39"/>
-      <c r="J17" s="54">
+      <c r="I18" s="35"/>
+      <c r="J18" s="48">
         <f t="shared" si="1"/>
         <v>220.90909090909091</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K18" s="81">
         <f t="shared" si="2"/>
         <v>254.04545454545453</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E18" s="60"/>
-      <c r="F18" s="36"/>
-    </row>
-    <row r="19" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="41" t="s">
+    <row r="19" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="53"/>
+      <c r="F19" s="71"/>
+    </row>
+    <row r="20" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="51">
+      <c r="C20" s="45">
         <v>2700</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D20" s="23">
         <v>3000</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E20" s="23">
         <v>2600</v>
       </c>
-      <c r="F19" s="36"/>
-    </row>
-    <row r="20" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="42" t="s">
+      <c r="F20" s="71"/>
+    </row>
+    <row r="21" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="45">
-        <f>C19*1.5</f>
+      <c r="C21" s="40">
+        <f>C20*1.5</f>
         <v>4050</v>
       </c>
-      <c r="D20" s="26">
-        <f>D19*1.5</f>
+      <c r="D21" s="25">
+        <f>D20*1.5</f>
         <v>4500</v>
       </c>
-      <c r="E20" s="26">
-        <f>E19*1.5</f>
+      <c r="E21" s="25">
+        <f>E20*1.5</f>
         <v>3900</v>
       </c>
-      <c r="F20" s="36"/>
-    </row>
-    <row r="21" spans="2:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="43" t="s">
+      <c r="F21" s="71"/>
+    </row>
+    <row r="22" spans="2:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="53">
-        <f>C20*12</f>
+      <c r="C22" s="47">
+        <f>C21*12</f>
         <v>48600</v>
       </c>
-      <c r="D21" s="28">
-        <f>D20*12</f>
+      <c r="D22" s="27">
+        <f>D21*12</f>
         <v>54000</v>
       </c>
-      <c r="E21" s="28">
-        <f>E20*12</f>
+      <c r="E22" s="27">
+        <f>E21*12</f>
         <v>46800</v>
       </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="32" t="s">
+      <c r="F22" s="71"/>
+      <c r="G22" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H21" s="33" t="s">
+      <c r="H22" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="I21" s="47" t="s">
+      <c r="I22" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="34" t="s">
+      <c r="J22" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="K22" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="50" t="s">
+    <row r="23" spans="2:11" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="23">
-        <f>SUM(G5:G17)</f>
-        <v>2430.0000000000005</v>
-      </c>
-      <c r="H22" s="22">
-        <f>SUM(H5:H17)</f>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="22">
+        <f>SUM(G5:G18)</f>
+        <v>1988.1818181818182</v>
+      </c>
+      <c r="H23" s="21">
+        <f>SUM(H5:H18)</f>
         <v>1816.3636363636365</v>
       </c>
-      <c r="I22" s="48">
-        <f>SUM(I5:I7,I9:I11,I13:I17)</f>
-        <v>1276.3636363636363</v>
-      </c>
-      <c r="J22" s="21">
-        <f>SUM(G22:I22)</f>
-        <v>5522.727272727273</v>
-      </c>
-      <c r="K22" s="19">
-        <f>SUM(K5:K17)</f>
-        <v>6159.681818181818</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K23" s="18" t="s">
+      <c r="I23" s="43">
+        <f>SUM(I5:I7,I9:I11,I13:I18)</f>
+        <v>1489.090909090909</v>
+      </c>
+      <c r="J23" s="20">
+        <f>SUM(G23:I23)</f>
+        <v>5293.636363636364</v>
+      </c>
+      <c r="K23" s="18">
+        <f>SUM(K5:K18)</f>
+        <v>5896.227272727273</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K24" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="K24" s="19">
-        <f>K22*0.2</f>
-        <v>1231.9363636363637</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K25" s="18" t="s">
+    <row r="25" spans="2:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="K25" s="18">
+        <f>K23*0.2</f>
+        <v>1179.2454545454545</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K26" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="K26" s="19">
-        <f>K22+K24</f>
-        <v>7391.6181818181813</v>
-      </c>
-    </row>
     <row r="27" spans="2:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="K27" s="16" t="s">
+      <c r="K27" s="18">
+        <f>K23+K25</f>
+        <v>7075.4727272727278</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="K28" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K28" s="20">
-        <f>K30-J22</f>
-        <v>777.27272727272702</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="K29" s="16" t="s">
+    <row r="29" spans="2:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K29" s="19">
+        <f>K31-J23</f>
+        <v>1906.363636363636</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="K30" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="K30" s="19">
-        <v>6300</v>
+    <row r="31" spans="2:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="K31" s="18">
+        <f>ROUNDUP(K27,-2)+100</f>
+        <v>7200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="F2:F22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="F2:F23"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="G4:J4"/>
